--- a/AutomationExecrcise/target/test-classes/TestData.xlsx
+++ b/AutomationExecrcise/target/test-classes/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Programs\Java Programs\Eclipse\AutomationExecrcise\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\AutomationExecrcise\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B376DFF-2E3F-4E41-9585-500003032735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4ECB80-9F15-4696-B5E9-2D37FE0BA2A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create Account" sheetId="1" r:id="rId1"/>
@@ -30,13 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="125">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="123">
   <si>
     <t>Aditya</t>
   </si>
@@ -179,21 +173,6 @@
     <t>Mrs.</t>
   </si>
   <si>
-    <t>Name on card</t>
-  </si>
-  <si>
-    <t>Card Number</t>
-  </si>
-  <si>
-    <t>CVC</t>
-  </si>
-  <si>
-    <t>Expiration Month</t>
-  </si>
-  <si>
-    <t>Expiration Year</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aditya </t>
   </si>
   <si>
@@ -218,9 +197,6 @@
     <t>Dress</t>
   </si>
   <si>
-    <t>Tops</t>
-  </si>
-  <si>
     <t>Saree</t>
   </si>
   <si>
@@ -233,9 +209,6 @@
     <t>Tops &amp; Shirts</t>
   </si>
   <si>
-    <t>Add Review</t>
-  </si>
-  <si>
     <t>"Great product! Fast delivery and excellent quality. Highly recommend!"</t>
   </si>
   <si>
@@ -405,6 +378,27 @@
   </si>
   <si>
     <t>D:\Study\Programs\Java Programs\Eclipse\AutomationExecrcise\Screenshot\4.png</t>
+  </si>
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
+    <t>Add Review(2)</t>
+  </si>
+  <si>
+    <t>Name on card(0)</t>
+  </si>
+  <si>
+    <t>Card Number(1)</t>
+  </si>
+  <si>
+    <t>CVC(2)</t>
+  </si>
+  <si>
+    <t>Expiration Month(3)</t>
+  </si>
+  <si>
+    <t>Expiration Year(4)</t>
   </si>
 </sst>
 </file>
@@ -838,102 +832,102 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="K1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1">
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G2" s="1">
         <v>2000</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="P2" s="1">
         <v>500084</v>
@@ -944,49 +938,49 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="E3" s="1">
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1">
         <v>2001</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="P3" s="1">
         <v>300041</v>
@@ -997,49 +991,49 @@
     </row>
     <row r="4" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="E4" s="2">
         <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G4" s="2">
         <v>1998</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="M4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="P4" s="2">
         <v>500081</v>
@@ -1050,49 +1044,49 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="E5" s="1">
         <v>22</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G5" s="1">
         <v>1995</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="M5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="P5" s="1">
         <v>500034</v>
@@ -1103,49 +1097,49 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E6" s="1">
         <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G6" s="1">
         <v>1999</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="M6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="P6" s="1">
         <v>500032</v>
@@ -1189,155 +1183,155 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="K1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="E2" s="1">
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G2" s="1">
         <v>2000</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="P2" s="1">
         <v>500084</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E3" s="1">
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1">
         <v>2001</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="P3" s="1">
         <v>300041</v>
@@ -1348,49 +1342,49 @@
     </row>
     <row r="4" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E4" s="2">
         <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G4" s="2">
         <v>1998</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="M4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="P4" s="2">
         <v>500081</v>
@@ -1401,49 +1395,49 @@
     </row>
     <row r="5" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E5" s="1">
         <v>22</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G5" s="1">
         <v>1995</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="M5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="P5" s="1">
         <v>500034</v>
@@ -1454,49 +1448,49 @@
     </row>
     <row r="6" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E6" s="1">
         <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G6" s="1">
         <v>1999</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="M6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="P6" s="1">
         <v>500032</v>
@@ -1516,7 +1510,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1526,42 +1520,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1574,7 +1568,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1585,68 +1579,68 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1663,41 +1657,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526A9393-80B9-4F62-A5C9-5D7A0A4D8D96}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
     <col min="2" max="2" width="22.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C2" s="4">
         <v>123</v>
@@ -1711,10 +1706,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C3" s="4">
         <v>456</v>
@@ -1728,10 +1723,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C4" s="4">
         <v>789</v>
@@ -1745,10 +1740,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C5" s="4">
         <v>234</v>
@@ -1762,10 +1757,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C6" s="4">
         <v>567</v>
@@ -1786,7 +1781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8EB86F-9D4D-4FAE-A006-E375026A509D}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -1800,104 +1795,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/AutomationExecrcise/target/test-classes/TestData.xlsx
+++ b/AutomationExecrcise/target/test-classes/TestData.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\AutomationExecrcise\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4ECB80-9F15-4696-B5E9-2D37FE0BA2A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BEA8DD3-C57B-4104-B8E5-CBD0EDEAEDFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create Account" sheetId="1" r:id="rId1"/>
-    <sheet name="Login Data" sheetId="7" r:id="rId2"/>
-    <sheet name="Search Product" sheetId="4" r:id="rId3"/>
-    <sheet name="Product Detail" sheetId="5" r:id="rId4"/>
-    <sheet name="Payment Details" sheetId="3" r:id="rId5"/>
-    <sheet name="Contact Us" sheetId="6" r:id="rId6"/>
+    <sheet name="Search Product" sheetId="4" r:id="rId2"/>
+    <sheet name="Product Detail" sheetId="5" r:id="rId3"/>
+    <sheet name="Payment Details" sheetId="3" r:id="rId4"/>
+    <sheet name="Contact Us" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="174">
   <si>
     <t>Aditya</t>
   </si>
@@ -305,57 +304,6 @@
     <t>Address1(10)</t>
   </si>
   <si>
-    <t>Ethan Carter</t>
-  </si>
-  <si>
-    <t>ethan.carter@example.com</t>
-  </si>
-  <si>
-    <t>Sophia Martinez</t>
-  </si>
-  <si>
-    <t>Liam O'Connor</t>
-  </si>
-  <si>
-    <t>liam.oconnor@example.com</t>
-  </si>
-  <si>
-    <t>Ava Patel</t>
-  </si>
-  <si>
-    <t>ava.patel@example.com</t>
-  </si>
-  <si>
-    <t>Noah Bennett</t>
-  </si>
-  <si>
-    <t>noah.bennett@example.com</t>
-  </si>
-  <si>
-    <t>S0ph!a#Secure</t>
-  </si>
-  <si>
-    <t>Ethn212024</t>
-  </si>
-  <si>
-    <t>L1123mPass</t>
-  </si>
-  <si>
-    <t>AvdPat3l$</t>
-  </si>
-  <si>
-    <t>N0awsdhB3n!</t>
-  </si>
-  <si>
-    <t>sophia123martinez@example.com</t>
-  </si>
-  <si>
-    <t>Email ID(1)</t>
-  </si>
-  <si>
-    <t>9876543210</t>
-  </si>
-  <si>
     <t>Subject(2)</t>
   </si>
   <si>
@@ -399,13 +347,218 @@
   </si>
   <si>
     <t>Expiration Year(4)</t>
+  </si>
+  <si>
+    <t>abc190xyz783@mail.com</t>
+  </si>
+  <si>
+    <t>abc736xyz728@mail.com</t>
+  </si>
+  <si>
+    <t>abc567xyz13@mail.com</t>
+  </si>
+  <si>
+    <t>abc586xyz769@mail.com</t>
+  </si>
+  <si>
+    <t>abc154xyz432@mail.com</t>
+  </si>
+  <si>
+    <t>abc768xyz705@mail.com</t>
+  </si>
+  <si>
+    <t>abc443xyz547@mail.com</t>
+  </si>
+  <si>
+    <t>abc285xyz808@mail.com</t>
+  </si>
+  <si>
+    <t>abc379xyz20@mail.com</t>
+  </si>
+  <si>
+    <t>abc963xyz676@mail.com</t>
+  </si>
+  <si>
+    <t>abc300xyz551@mail.com</t>
+  </si>
+  <si>
+    <t>abc682xyz866@mail.com</t>
+  </si>
+  <si>
+    <t>abc923xyz239@mail.com</t>
+  </si>
+  <si>
+    <t>abc386xyz829@mail.com</t>
+  </si>
+  <si>
+    <t>abc576xyz752@mail.com</t>
+  </si>
+  <si>
+    <t>abc291xyz637@mail.com</t>
+  </si>
+  <si>
+    <t>abc777xyz205@mail.com</t>
+  </si>
+  <si>
+    <t>abc5xyz757@mail.com</t>
+  </si>
+  <si>
+    <t>abc512xyz116@mail.com</t>
+  </si>
+  <si>
+    <t>abc849xyz403@mail.com</t>
+  </si>
+  <si>
+    <t>abc313xyz171@mail.com</t>
+  </si>
+  <si>
+    <t>abc695xyz426@mail.com</t>
+  </si>
+  <si>
+    <t>abc712xyz610@mail.com</t>
+  </si>
+  <si>
+    <t>abc479xyz999@mail.com</t>
+  </si>
+  <si>
+    <t>abc784xyz284@mail.com</t>
+  </si>
+  <si>
+    <t>abc14xyz794@mail.com</t>
+  </si>
+  <si>
+    <t>abc173xyz513@mail.com</t>
+  </si>
+  <si>
+    <t>abc480xyz918@mail.com</t>
+  </si>
+  <si>
+    <t>abc254xyz436@mail.com</t>
+  </si>
+  <si>
+    <t>abc637xyz330@mail.com</t>
+  </si>
+  <si>
+    <t>abc343xyz662@mail.com</t>
+  </si>
+  <si>
+    <t>abc196xyz317@mail.com</t>
+  </si>
+  <si>
+    <t>abc890xyz930@mail.com</t>
+  </si>
+  <si>
+    <t>abc710xyz880@mail.com</t>
+  </si>
+  <si>
+    <t>abc477xyz888@mail.com</t>
+  </si>
+  <si>
+    <t>abc35xyz396@mail.com</t>
+  </si>
+  <si>
+    <t>abc333xyz347@mail.com</t>
+  </si>
+  <si>
+    <t>abc471xyz807@mail.com</t>
+  </si>
+  <si>
+    <t>abc92xyz606@mail.com</t>
+  </si>
+  <si>
+    <t>abc489xyz482@mail.com</t>
+  </si>
+  <si>
+    <t>abc139xyz77@mail.com</t>
+  </si>
+  <si>
+    <t>abc28xyz365@mail.com</t>
+  </si>
+  <si>
+    <t>abc165xyz402@mail.com</t>
+  </si>
+  <si>
+    <t>abc21xyz719@mail.com</t>
+  </si>
+  <si>
+    <t>abc439xyz763@mail.com</t>
+  </si>
+  <si>
+    <t>abc967xyz114@mail.com</t>
+  </si>
+  <si>
+    <t>abc206xyz414@mail.com</t>
+  </si>
+  <si>
+    <t>abc125xyz370@mail.com</t>
+  </si>
+  <si>
+    <t>abc111xyz766@mail.com</t>
+  </si>
+  <si>
+    <t>abc736xyz934@mail.com</t>
+  </si>
+  <si>
+    <t>abc887xyz640@mail.com</t>
+  </si>
+  <si>
+    <t>abc974xyz102@mail.com</t>
+  </si>
+  <si>
+    <t>abc205xyz433@mail.com</t>
+  </si>
+  <si>
+    <t>abc80xyz144@mail.com</t>
+  </si>
+  <si>
+    <t>abc245xyz182@mail.com</t>
+  </si>
+  <si>
+    <t>abc257xyz893@mail.com</t>
+  </si>
+  <si>
+    <t>abc107xyz997@mail.com</t>
+  </si>
+  <si>
+    <t>abc930xyz479@mail.com</t>
+  </si>
+  <si>
+    <t>abc971xyz36@mail.com</t>
+  </si>
+  <si>
+    <t>abc644xyz156@mail.com</t>
+  </si>
+  <si>
+    <t>abc764xyz580@mail.com</t>
+  </si>
+  <si>
+    <t>abc933xyz736@mail.com</t>
+  </si>
+  <si>
+    <t>abc741xyz637@mail.com</t>
+  </si>
+  <si>
+    <t>abc781xyz107@mail.com</t>
+  </si>
+  <si>
+    <t>abc449xyz198@mail.com</t>
+  </si>
+  <si>
+    <t>abc241xyz853@mail.com</t>
+  </si>
+  <si>
+    <t>abc868xyz415@mail.com</t>
+  </si>
+  <si>
+    <t>abc984xyz873@mail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,19 +589,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -496,7 +636,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -519,12 +659,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -808,26 +943,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="27.6640625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.44140625"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="11.33203125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.0"/>
+    <col min="7" max="8" bestFit="true" customWidth="true" width="11.77734375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.6640625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.44140625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.88671875"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.0"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.109375"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="9.6640625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.44140625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="17" max="17" customWidth="true" width="16.33203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
@@ -887,8 +1022,8 @@
       <c r="A2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>3</v>
+      <c r="B2" t="s" s="0">
+        <v>173</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -1149,363 +1284,14 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{97CB3440-31F1-4A7D-9F43-0072DC9BF78B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8151D731-3DA8-4B9E-B1D2-BCA55414FAC0}">
-  <dimension ref="A1:Q6"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="35.21875" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" s="1">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2000</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" s="1">
-        <v>500084</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E3" s="1">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2001</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P3" s="1">
-        <v>300041</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>8745387573</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E4" s="2">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1998</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P4" s="2">
-        <v>500081</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>7654321098</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E5" s="1">
-        <v>22</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1995</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P5" s="1">
-        <v>500034</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>8765432109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" s="1">
-        <v>5</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1999</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P6" s="1">
-        <v>500032</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>9876501234</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B591C2-8B0D-498B-9E7A-D062419FB9F2}">
   <dimension ref="A1:A8"/>
   <sheetViews>
@@ -1515,7 +1301,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -1530,7 +1316,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
@@ -1563,7 +1349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868C89D9-2F13-4AC1-9D51-0FA3B5DAA8CC}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -1573,8 +1359,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.33203125" customWidth="1"/>
-    <col min="3" max="3" width="74" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="27.33203125"/>
+    <col min="3" max="3" customWidth="true" width="74.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -1585,14 +1371,14 @@
         <v>75</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>3</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -1603,7 +1389,7 @@
       <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>12</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -1653,38 +1439,38 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526A9393-80B9-4F62-A5C9-5D7A0A4D8D96}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="22.5546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.109375"/>
+    <col min="2" max="2" customWidth="true" width="22.77734375"/>
+    <col min="3" max="3" customWidth="true" width="11.6640625"/>
+    <col min="4" max="4" customWidth="true" width="19.6640625"/>
+    <col min="5" max="5" customWidth="true" width="22.5546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1777,7 +1563,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8EB86F-9D4D-4FAE-A006-E375026A509D}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -1787,10 +1573,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="69.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.5546875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.109375"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="59.6640625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="69.77734375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -1801,13 +1587,13 @@
         <v>75</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1824,7 +1610,7 @@
         <v>64</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1841,7 +1627,7 @@
         <v>65</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1858,7 +1644,7 @@
         <v>66</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1875,7 +1661,7 @@
         <v>67</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1892,7 +1678,7 @@
         <v>68</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/AutomationExecrcise/target/test-classes/TestData.xlsx
+++ b/AutomationExecrcise/target/test-classes/TestData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="184">
   <si>
     <t>Aditya</t>
   </si>
@@ -551,6 +551,36 @@
   </si>
   <si>
     <t>abc984xyz873@mail.com</t>
+  </si>
+  <si>
+    <t>abc156xyz163@mail.com</t>
+  </si>
+  <si>
+    <t>abc323xyz699@mail.com</t>
+  </si>
+  <si>
+    <t>abc526xyz206@mail.com</t>
+  </si>
+  <si>
+    <t>abc177xyz595@mail.com</t>
+  </si>
+  <si>
+    <t>abc982xyz519@mail.com</t>
+  </si>
+  <si>
+    <t>abc684xyz874@mail.com</t>
+  </si>
+  <si>
+    <t>abc652xyz413@mail.com</t>
+  </si>
+  <si>
+    <t>abc602xyz696@mail.com</t>
+  </si>
+  <si>
+    <t>abc861xyz26@mail.com</t>
+  </si>
+  <si>
+    <t>abc543xyz545@mail.com</t>
   </si>
 </sst>
 </file>
@@ -1023,7 +1053,7 @@
         <v>47</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>

--- a/AutomationExecrcise/target/test-classes/TestData.xlsx
+++ b/AutomationExecrcise/target/test-classes/TestData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="186">
   <si>
     <t>Aditya</t>
   </si>
@@ -581,6 +581,12 @@
   </si>
   <si>
     <t>abc543xyz545@mail.com</t>
+  </si>
+  <si>
+    <t>abc832xyz142@mail.com</t>
+  </si>
+  <si>
+    <t>abc396xyz995@mail.com</t>
   </si>
 </sst>
 </file>
@@ -1053,7 +1059,7 @@
         <v>47</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>

--- a/AutomationExecrcise/target/test-classes/TestData.xlsx
+++ b/AutomationExecrcise/target/test-classes/TestData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="207">
   <si>
     <t>Aditya</t>
   </si>
@@ -587,6 +587,69 @@
   </si>
   <si>
     <t>abc396xyz995@mail.com</t>
+  </si>
+  <si>
+    <t>abc748xyz379@mail.com</t>
+  </si>
+  <si>
+    <t>abc307xyz415@mail.com</t>
+  </si>
+  <si>
+    <t>abc645xyz58@mail.com</t>
+  </si>
+  <si>
+    <t>abc64xyz548@mail.com</t>
+  </si>
+  <si>
+    <t>abc67xyz843@mail.com</t>
+  </si>
+  <si>
+    <t>abc947xyz569@mail.com</t>
+  </si>
+  <si>
+    <t>abc565xyz918@mail.com</t>
+  </si>
+  <si>
+    <t>abc647xyz884@mail.com</t>
+  </si>
+  <si>
+    <t>abc798xyz518@mail.com</t>
+  </si>
+  <si>
+    <t>abc189xyz673@mail.com</t>
+  </si>
+  <si>
+    <t>abc104xyz332@mail.com</t>
+  </si>
+  <si>
+    <t>abc156xyz269@mail.com</t>
+  </si>
+  <si>
+    <t>abc182xyz383@mail.com</t>
+  </si>
+  <si>
+    <t>abc295xyz586@mail.com</t>
+  </si>
+  <si>
+    <t>abc874xyz641@mail.com</t>
+  </si>
+  <si>
+    <t>abc445xyz99@mail.com</t>
+  </si>
+  <si>
+    <t>abc816xyz281@mail.com</t>
+  </si>
+  <si>
+    <t>abc727xyz150@mail.com</t>
+  </si>
+  <si>
+    <t>abc244xyz77@mail.com</t>
+  </si>
+  <si>
+    <t>abc994xyz815@mail.com</t>
+  </si>
+  <si>
+    <t>abc805xyz499@mail.com</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1122,7 @@
         <v>47</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>

--- a/AutomationExecrcise/target/test-classes/TestData.xlsx
+++ b/AutomationExecrcise/target/test-classes/TestData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="239">
   <si>
     <t>Aditya</t>
   </si>
@@ -650,6 +650,102 @@
   </si>
   <si>
     <t>abc805xyz499@mail.com</t>
+  </si>
+  <si>
+    <t>abc843xyz36@mail.com</t>
+  </si>
+  <si>
+    <t>abc857xyz351@mail.com</t>
+  </si>
+  <si>
+    <t>abc488xyz993@mail.com</t>
+  </si>
+  <si>
+    <t>abc484xyz239@mail.com</t>
+  </si>
+  <si>
+    <t>abc472xyz810@mail.com</t>
+  </si>
+  <si>
+    <t>abc235xyz715@mail.com</t>
+  </si>
+  <si>
+    <t>abc837xyz622@mail.com</t>
+  </si>
+  <si>
+    <t>abc965xyz161@mail.com</t>
+  </si>
+  <si>
+    <t>abc161xyz703@mail.com</t>
+  </si>
+  <si>
+    <t>abc297xyz474@mail.com</t>
+  </si>
+  <si>
+    <t>abc24xyz640@mail.com</t>
+  </si>
+  <si>
+    <t>abc235xyz896@mail.com</t>
+  </si>
+  <si>
+    <t>abc599xyz745@mail.com</t>
+  </si>
+  <si>
+    <t>abc118xyz227@mail.com</t>
+  </si>
+  <si>
+    <t>abc238xyz318@mail.com</t>
+  </si>
+  <si>
+    <t>abc513xyz172@mail.com</t>
+  </si>
+  <si>
+    <t>abc731xyz184@mail.com</t>
+  </si>
+  <si>
+    <t>abc895xyz283@mail.com</t>
+  </si>
+  <si>
+    <t>abc579xyz10@mail.com</t>
+  </si>
+  <si>
+    <t>abc722xyz165@mail.com</t>
+  </si>
+  <si>
+    <t>abc556xyz360@mail.com</t>
+  </si>
+  <si>
+    <t>abc512xyz276@mail.com</t>
+  </si>
+  <si>
+    <t>abc174xyz217@mail.com</t>
+  </si>
+  <si>
+    <t>abc765xyz922@mail.com</t>
+  </si>
+  <si>
+    <t>abc109xyz615@mail.com</t>
+  </si>
+  <si>
+    <t>abc67xyz835@mail.com</t>
+  </si>
+  <si>
+    <t>abc911xyz15@mail.com</t>
+  </si>
+  <si>
+    <t>abc140xyz497@mail.com</t>
+  </si>
+  <si>
+    <t>abc11xyz768@mail.com</t>
+  </si>
+  <si>
+    <t>abc750xyz165@mail.com</t>
+  </si>
+  <si>
+    <t>abc589xyz6@mail.com</t>
+  </si>
+  <si>
+    <t>abc392xyz247@mail.com</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1218,7 @@
         <v>47</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
